--- a/fermentation_insights/TRY_results/d_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/d_coeff_baselines_percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\fermentation_insights\fermentation_insights\TRY_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03225C4-5E4D-42C4-A431-C279B885144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3E524-F077-464A-9B08-67C2AEA7876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>glucose</t>
   </si>
   <si>
+    <t>cornstover</t>
+  </si>
+  <si>
     <t>sugarcane</t>
-  </si>
-  <si>
-    <t>cornstover</t>
   </si>
   <si>
     <t>corn</t>
@@ -99,6 +99,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,20 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
     <col min="4" max="7" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,14 +474,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -491,19 +492,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>0.8043060069509208</v>
+        <v>0.67339352407549313</v>
       </c>
       <c r="E2" s="3">
         <v>0.65462579410766386</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.87026800847023789</v>
-      </c>
       <c r="G2" s="3">
         <v>1.1548729872385139</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>0.87026800847023789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -514,19 +515,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>0.67768234583331211</v>
+        <v>0.44681912150519881</v>
       </c>
       <c r="E3" s="3">
-        <v>0.52519616628772903</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.76624284862963143</v>
+        <v>0.50428208231510319</v>
       </c>
       <c r="G3" s="3">
-        <v>1.147911183561886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.0376453029086421</v>
+      </c>
+      <c r="K3">
+        <v>0.72708918380338816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -537,19 +538,19 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>0.59763874363566538</v>
+        <v>0.45862358273278508</v>
       </c>
       <c r="E4" s="3">
-        <v>0.62218682734860398</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.88993192917019193</v>
+        <v>0.52519616628772903</v>
       </c>
       <c r="G4" s="3">
-        <v>1.253315185866662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.147911183561886</v>
+      </c>
+      <c r="K4">
+        <v>0.76624284862963143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -560,19 +561,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>0.55340474946151197</v>
+        <v>0.40146924494334052</v>
       </c>
       <c r="E5" s="3">
         <v>0.49912672101208211</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.64295854674118003</v>
-      </c>
       <c r="G5" s="3">
         <v>0.85680545173372957</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>0.64295854674118003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -583,19 +584,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>1.0973851817521101</v>
+        <v>0.67083360380611012</v>
       </c>
       <c r="E6" s="3">
         <v>0.6870490785890343</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.90570943248128155</v>
-      </c>
       <c r="G6" s="3">
         <v>1.1863081224825669</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>0.90570943248128155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -606,19 +607,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="3">
-        <v>0.73190032463887256</v>
+        <v>0.5061703205054654</v>
       </c>
       <c r="E7" s="3">
-        <v>0.50314730915013883</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.75101599591385193</v>
+        <v>0.53823019878635481</v>
       </c>
       <c r="G7" s="3">
-        <v>1.1094212234076899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.072611245996113</v>
+      </c>
+      <c r="K7">
+        <v>0.78471290960027296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -629,19 +630,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>0.63049521985247559</v>
+        <v>0.49142124104246182</v>
       </c>
       <c r="E8" s="3">
-        <v>0.53823019878635481</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.78471290960027296</v>
+        <v>0.45819268480360431</v>
       </c>
       <c r="G8" s="3">
-        <v>1.072611245996113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1480241882919251</v>
+      </c>
+      <c r="K8">
+        <v>0.81093006435922321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -652,19 +653,19 @@
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.6894805695445152</v>
+        <v>0.37138503779672788</v>
       </c>
       <c r="E9" s="3">
-        <v>0.48558767548315801</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.65128907416326542</v>
+        <v>0.48558767464929581</v>
       </c>
       <c r="G9" s="3">
-        <v>0.87406135202402246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.87406133111138484</v>
+      </c>
+      <c r="K9">
+        <v>0.65128908155624199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -675,19 +676,19 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.33673088103059279</v>
+        <v>0.34789355712329212</v>
       </c>
       <c r="E10" s="3">
         <v>0.32524369328902508</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.40154323062088038</v>
-      </c>
       <c r="G10" s="3">
         <v>0.55588296538874238</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>0.40154323062088038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -698,19 +699,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.39753120768292127</v>
+        <v>0.37321854295209711</v>
       </c>
       <c r="E11" s="3">
-        <v>0.29703733735178578</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.39962542476984098</v>
+        <v>0.35913029338926822</v>
       </c>
       <c r="G11" s="3">
-        <v>0.50451864523327739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.58449582411771805</v>
+      </c>
+      <c r="K11">
+        <v>0.47099548375376837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -721,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.44001212564975078</v>
+        <v>0.34150547007561682</v>
       </c>
       <c r="E12" s="3">
-        <v>0.35913029338926822</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.47099548375376837</v>
+        <v>0.29703733735178578</v>
       </c>
       <c r="G12" s="3">
-        <v>0.58449582411771805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.50451864523327739</v>
+      </c>
+      <c r="K12">
+        <v>0.39962542476984098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -744,19 +745,19 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.27355230050949758</v>
+        <v>0.41114600973406829</v>
       </c>
       <c r="E13" s="3">
         <v>0.22846602122267079</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.27824492118005167</v>
-      </c>
       <c r="G13" s="3">
         <v>0.34397892492636739</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>0.27824492118005167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -767,19 +768,19 @@
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <v>0.35571292262717569</v>
+        <v>0.35694508056201057</v>
       </c>
       <c r="E14" s="3">
         <v>0.31542477833619342</v>
       </c>
-      <c r="F14" s="3">
-        <v>0.3978058516729055</v>
-      </c>
       <c r="G14" s="3">
         <v>0.52766344783516661</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>0.3978058516729055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -790,19 +791,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="3">
-        <v>0.4463412658074466</v>
+        <v>0.39600467286780883</v>
       </c>
       <c r="E15" s="3">
-        <v>0.3475739442450051</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.44875125908394681</v>
+        <v>0.38174079134445799</v>
       </c>
       <c r="G15" s="3">
-        <v>0.58168667233723415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.61631337070834391</v>
+      </c>
+      <c r="K15">
+        <v>0.48166794528679552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -813,19 +814,19 @@
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>0.4447419029105909</v>
+        <v>0.375700803466609</v>
       </c>
       <c r="E16" s="3">
-        <v>0.38174079134445799</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.48166794528679552</v>
+        <v>0.3475739442450051</v>
       </c>
       <c r="G16" s="3">
-        <v>0.61631337070834391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.58168667233723415</v>
+      </c>
+      <c r="K16">
+        <v>0.44875125908394681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -836,19 +837,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>0.29956488963423022</v>
+        <v>0.4382415602060083</v>
       </c>
       <c r="E17" s="3">
         <v>0.25944904824781828</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.29674937776847321</v>
-      </c>
       <c r="G17" s="3">
         <v>0.35697565504452899</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>0.29674937776847321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -859,19 +860,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>-4.4252614631348237E-3</v>
+        <v>0.59444021499759747</v>
       </c>
       <c r="E18" s="3">
-        <v>2.302927557511961E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6.3359071465382458E-2</v>
+        <v>0.53941989484750363</v>
       </c>
       <c r="G18" s="3">
-        <v>0.24793679190349471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.75506107565612868</v>
+      </c>
+      <c r="K18">
+        <v>0.62276794792104762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -882,19 +883,19 @@
         <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>9.6210057762885839E-2</v>
+        <v>0.36422977532995893</v>
       </c>
       <c r="E19" s="3">
-        <v>-4.1524132971559047E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.9043653166148036E-2</v>
+        <v>0.36813176011795179</v>
       </c>
       <c r="G19" s="3">
-        <v>0.1744931470408797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7742033455888</v>
+      </c>
+      <c r="K19">
+        <v>0.61729875719888461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -905,19 +906,19 @@
         <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>8.5868901712076225E-3</v>
+        <v>0.81006862985727979</v>
       </c>
       <c r="E20" s="3">
-        <v>-1.9660417121629539E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.1344034253778047</v>
+        <v>0.68064399908910556</v>
       </c>
       <c r="G20" s="3">
-        <v>0.21238561588113669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.92664466086428177</v>
+      </c>
+      <c r="K20">
+        <v>0.80071391602442787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -928,19 +929,19 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>-3.7737697169556543E-2</v>
+        <v>0.44836928185756553</v>
       </c>
       <c r="E21" s="3">
-        <v>-1.282296484213121</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1.066732360295914</v>
+        <v>0.49091632707760691</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.88315896855517029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.66725019727489165</v>
+      </c>
+      <c r="K21">
+        <v>0.57029873128739672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -951,19 +952,19 @@
         <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>1.8639740187740221E-2</v>
+        <v>0.59862204441253997</v>
       </c>
       <c r="E22" s="3">
-        <v>5.1520765968064791E-2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8.8928794791233001E-2</v>
+        <v>0.53514611667621792</v>
       </c>
       <c r="G22" s="3">
-        <v>0.26653863761012769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.78345442887910999</v>
+      </c>
+      <c r="K22">
+        <v>0.62608291861711951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -974,19 +975,19 @@
         <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>0.13025909561709009</v>
+        <v>0.3459322963553228</v>
       </c>
       <c r="E23" s="3">
-        <v>-1.251854726508111</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1.0385662731237311</v>
+        <v>0.55118705053459871</v>
       </c>
       <c r="G23" s="3">
-        <v>-0.85363314688881808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.81634281534583553</v>
+      </c>
+      <c r="K23">
+        <v>0.66676887901657311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -997,19 +998,19 @@
         <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>4.5958068430451048E-2</v>
+        <v>0.83817036540141276</v>
       </c>
       <c r="E24" s="3">
-        <v>-0.95496328383897044</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-0.63341947474722127</v>
+        <v>0.72260951274398044</v>
       </c>
       <c r="G24" s="3">
-        <v>-0.38654472795921091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.94991374524746197</v>
+      </c>
+      <c r="K24">
+        <v>0.83811537400617619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1020,16 +1021,26 @@
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>6.2269554499955297E-3</v>
+        <v>0.49868198363725508</v>
       </c>
       <c r="E25" s="3">
-        <v>-0.46603501104447131</v>
-      </c>
-      <c r="F25" s="3">
-        <v>-0.22593687803256909</v>
+        <v>0.41938520103871552</v>
       </c>
       <c r="G25" s="3">
-        <v>0.1155785930333305</v>
+        <v>0.62138622823449319</v>
+      </c>
+      <c r="K25">
+        <v>0.53575653532784817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E28" s="3">
+        <f>MIN(E2:E25)</f>
+        <v>0.22846602122267079</v>
+      </c>
+      <c r="G28" s="3">
+        <f>MAX(G2:G25)</f>
+        <v>1.1863081224825669</v>
       </c>
     </row>
   </sheetData>

--- a/fermentation_insights/TRY_results/d_coeff_baselines_percentiles.xlsx
+++ b/fermentation_insights/TRY_results/d_coeff_baselines_percentiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>product</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +453,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0.8076113934704183</v>
       </c>
       <c r="E2">
-        <v>0.5015044247825713</v>
+        <v>0.4731619916152838</v>
       </c>
       <c r="F2">
-        <v>0.7548307017914448</v>
+        <v>0.7377833398760059</v>
       </c>
       <c r="G2">
-        <v>1.126689890291784</v>
+        <v>1.014529947384579</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +476,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0.6663159143719599</v>
       </c>
       <c r="E3">
-        <v>-1.319276341640752</v>
+        <v>0.2673592550877427</v>
       </c>
       <c r="F3">
-        <v>-0.9743637607155383</v>
+        <v>0.411820960783376</v>
       </c>
       <c r="G3">
-        <v>0.6524464953557574</v>
+        <v>0.8929025747221417</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,19 +499,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.7004496377278826</v>
       </c>
       <c r="E4">
-        <v>0.4300958994560613</v>
+        <v>0.4962985379842665</v>
       </c>
       <c r="F4">
-        <v>0.7231078451336994</v>
+        <v>0.7571444453488265</v>
       </c>
       <c r="G4">
-        <v>1.104323887544367</v>
+        <v>1.131373295953423</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,19 +522,479 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.5874153180839056</v>
       </c>
       <c r="E5">
-        <v>0.06284444459214489</v>
+        <v>0.2454992482419808</v>
       </c>
       <c r="F5">
-        <v>0.4467984744584216</v>
+        <v>0.5131514616774011</v>
       </c>
       <c r="G5">
-        <v>0.7591316981632571</v>
+        <v>0.7706484441984314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.8089229756345825</v>
+      </c>
+      <c r="E6">
+        <v>0.4824995410683728</v>
+      </c>
+      <c r="F6">
+        <v>0.7413995136258669</v>
+      </c>
+      <c r="G6">
+        <v>1.087434555850427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0.7254153305241103</v>
+      </c>
+      <c r="E7">
+        <v>0.2240927968694005</v>
+      </c>
+      <c r="F7">
+        <v>0.3739186342806015</v>
+      </c>
+      <c r="G7">
+        <v>0.8146556402617708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0.7286043155857145</v>
+      </c>
+      <c r="E8">
+        <v>0.5493400563075979</v>
+      </c>
+      <c r="F8">
+        <v>0.8207279131743399</v>
+      </c>
+      <c r="G8">
+        <v>1.161023640366795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0.6109888620619857</v>
+      </c>
+      <c r="E9">
+        <v>0.2818149931391434</v>
+      </c>
+      <c r="F9">
+        <v>0.5688406127284713</v>
+      </c>
+      <c r="G9">
+        <v>0.8561210147471862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.3422577217963118</v>
+      </c>
+      <c r="E10">
+        <v>0.3100482595181515</v>
+      </c>
+      <c r="F10">
+        <v>0.354637608389202</v>
+      </c>
+      <c r="G10">
+        <v>0.4156064151025112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.3602281198731726</v>
+      </c>
+      <c r="E11">
+        <v>0.3710671634043583</v>
+      </c>
+      <c r="F11">
+        <v>0.4358458977703615</v>
+      </c>
+      <c r="G11">
+        <v>0.5026078430422154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0.3294199455099148</v>
+      </c>
+      <c r="E12">
+        <v>0.3184328317687845</v>
+      </c>
+      <c r="F12">
+        <v>0.3972379372325879</v>
+      </c>
+      <c r="G12">
+        <v>0.4725653774209201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0.4079831613444496</v>
+      </c>
+      <c r="E13">
+        <v>0.3917151069791597</v>
+      </c>
+      <c r="F13">
+        <v>0.476281277062177</v>
+      </c>
+      <c r="G13">
+        <v>0.558889138849604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.3495823573426564</v>
+      </c>
+      <c r="E14">
+        <v>0.3208152675410884</v>
+      </c>
+      <c r="F14">
+        <v>0.3642754288353541</v>
+      </c>
+      <c r="G14">
+        <v>0.4254971429083075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0.3740990921986198</v>
+      </c>
+      <c r="E15">
+        <v>0.4150743526197778</v>
+      </c>
+      <c r="F15">
+        <v>0.4862774074071024</v>
+      </c>
+      <c r="G15">
+        <v>0.5569482628126663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0.363036843152842</v>
+      </c>
+      <c r="E16">
+        <v>0.3553227172581071</v>
+      </c>
+      <c r="F16">
+        <v>0.4327540100638973</v>
+      </c>
+      <c r="G16">
+        <v>0.5150946726643352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0.4313992394248324</v>
+      </c>
+      <c r="E17">
+        <v>0.4196647779116208</v>
+      </c>
+      <c r="F17">
+        <v>0.5192714663400519</v>
+      </c>
+      <c r="G17">
+        <v>0.6129522371521307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0.5893259705512165</v>
+      </c>
+      <c r="E18">
+        <v>0.5565741137274891</v>
+      </c>
+      <c r="F18">
+        <v>0.6290267458863862</v>
+      </c>
+      <c r="G18">
+        <v>0.7067556265744221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0.4085012321764507</v>
+      </c>
+      <c r="E19">
+        <v>0.5285953486949833</v>
+      </c>
+      <c r="F19">
+        <v>0.6027899359189617</v>
+      </c>
+      <c r="G19">
+        <v>0.6822861948135474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0.7343640001982046</v>
+      </c>
+      <c r="E20">
+        <v>0.6338520186333836</v>
+      </c>
+      <c r="F20">
+        <v>0.7411541141162679</v>
+      </c>
+      <c r="G20">
+        <v>0.8513740718512479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0.4568848819559928</v>
+      </c>
+      <c r="E21">
+        <v>0.4489679961485812</v>
+      </c>
+      <c r="F21">
+        <v>0.531628882745239</v>
+      </c>
+      <c r="G21">
+        <v>0.6179600329812482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0.5886946207262463</v>
+      </c>
+      <c r="E22">
+        <v>0.5521676760963696</v>
+      </c>
+      <c r="F22">
+        <v>0.621108489490243</v>
+      </c>
+      <c r="G22">
+        <v>0.700596463886914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0.4032519982483085</v>
+      </c>
+      <c r="E23">
+        <v>0.5446527834500676</v>
+      </c>
+      <c r="F23">
+        <v>0.6112902462876788</v>
+      </c>
+      <c r="G23">
+        <v>0.683075259509119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>0.7461881769458749</v>
+      </c>
+      <c r="E24">
+        <v>0.6222086530714537</v>
+      </c>
+      <c r="F24">
+        <v>0.7189761099075381</v>
+      </c>
+      <c r="G24">
+        <v>0.8202732981968941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>0.4938392172553716</v>
+      </c>
+      <c r="E25">
+        <v>0.4676751409564463</v>
+      </c>
+      <c r="F25">
+        <v>0.5466788158859512</v>
+      </c>
+      <c r="G25">
+        <v>0.629911874619651</v>
       </c>
     </row>
   </sheetData>
